--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pgf</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H2">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I2">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J2">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>1906.802910599704</v>
+        <v>995.7714125089684</v>
       </c>
       <c r="R2">
-        <v>17161.22619539734</v>
+        <v>8961.942712580716</v>
       </c>
       <c r="S2">
-        <v>0.3040915743895016</v>
+        <v>0.2044512333130378</v>
       </c>
       <c r="T2">
-        <v>0.3248116314537675</v>
+        <v>0.2132230275605475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H3">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I3">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J3">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>838.244253060825</v>
+        <v>752.7966412430752</v>
       </c>
       <c r="R3">
-        <v>7544.198277547425</v>
+        <v>6775.169771187676</v>
       </c>
       <c r="S3">
-        <v>0.1336808399123164</v>
+        <v>0.154563788237567</v>
       </c>
       <c r="T3">
-        <v>0.1427895257972938</v>
+        <v>0.1611952070192758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H4">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I4">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J4">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>1087.83679663542</v>
+        <v>1012.572400344696</v>
       </c>
       <c r="R4">
-        <v>9790.531169718779</v>
+        <v>9113.151603102264</v>
       </c>
       <c r="S4">
-        <v>0.1734851579724394</v>
+        <v>0.2079008028033257</v>
       </c>
       <c r="T4">
-        <v>0.1853060128586977</v>
+        <v>0.2168205976929492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H5">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I5">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J5">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>532.9169898111929</v>
+        <v>225.8248090368985</v>
       </c>
       <c r="R5">
-        <v>3197.501938867158</v>
+        <v>1354.948854221391</v>
       </c>
       <c r="S5">
-        <v>0.08498810524661511</v>
+        <v>0.04636622435659581</v>
       </c>
       <c r="T5">
-        <v>0.06051932475655943</v>
+        <v>0.03223701669965098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.470401</v>
+        <v>15.689531</v>
       </c>
       <c r="H6">
-        <v>52.411203</v>
+        <v>47.06859300000001</v>
       </c>
       <c r="I6">
-        <v>0.8600988665959021</v>
+        <v>0.8683432064281382</v>
       </c>
       <c r="J6">
-        <v>0.8884442399952684</v>
+        <v>0.8894801737219745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>1027.43964039964</v>
+        <v>1242.264989948792</v>
       </c>
       <c r="R6">
-        <v>9246.956763596761</v>
+        <v>11180.38490953913</v>
       </c>
       <c r="S6">
-        <v>0.1638531890750295</v>
+        <v>0.2550611577176118</v>
       </c>
       <c r="T6">
-        <v>0.1750177451289501</v>
+        <v>0.2660043247495509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J7">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>97.96208851688178</v>
+        <v>56.96456630690444</v>
       </c>
       <c r="R7">
-        <v>881.658796651936</v>
+        <v>512.68109676214</v>
       </c>
       <c r="S7">
-        <v>0.01562271882531021</v>
+        <v>0.0116959331130467</v>
       </c>
       <c r="T7">
-        <v>0.01668721272393032</v>
+        <v>0.01219773648756193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J8">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>43.06483761936667</v>
@@ -948,10 +948,10 @@
         <v>387.5835385743</v>
       </c>
       <c r="S8">
-        <v>0.006867859388982558</v>
+        <v>0.008842048539554677</v>
       </c>
       <c r="T8">
-        <v>0.007335818551398554</v>
+        <v>0.009221408591624959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J9">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>55.88766619325333</v>
+        <v>57.92569149443956</v>
       </c>
       <c r="R9">
-        <v>502.98899573928</v>
+        <v>521.331223449956</v>
       </c>
       <c r="S9">
-        <v>0.008912808086870543</v>
+        <v>0.01189327080269243</v>
       </c>
       <c r="T9">
-        <v>0.009520105058296211</v>
+        <v>0.01240354077133282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J10">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>27.37863522120134</v>
+        <v>12.91863990723933</v>
       </c>
       <c r="R10">
-        <v>164.271811327208</v>
+        <v>77.511839443436</v>
       </c>
       <c r="S10">
-        <v>0.004366267873187012</v>
+        <v>0.002652447970068956</v>
       </c>
       <c r="T10">
-        <v>0.003109183133625174</v>
+        <v>0.001844165892146974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.04418761940962108</v>
+        <v>0.04967484860314785</v>
       </c>
       <c r="J11">
-        <v>0.04564386429080782</v>
+        <v>0.05088401986455496</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>52.78475947308445</v>
+        <v>71.0655934702751</v>
       </c>
       <c r="R11">
-        <v>475.0628352577601</v>
+        <v>639.590341232476</v>
       </c>
       <c r="S11">
-        <v>0.008417965235270761</v>
+        <v>0.01459114817778508</v>
       </c>
       <c r="T11">
-        <v>0.008991544823557565</v>
+        <v>0.01521716812188828</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H12">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I12">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J12">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>212.192823588664</v>
+        <v>7.502675377022222</v>
       </c>
       <c r="R12">
-        <v>1273.156941531984</v>
+        <v>67.5240783932</v>
       </c>
       <c r="S12">
-        <v>0.03383991572518456</v>
+        <v>0.001540445141033549</v>
       </c>
       <c r="T12">
-        <v>0.02409712328053828</v>
+        <v>0.001606536539005374</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H13">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I13">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J13">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>93.28148909632502</v>
+        <v>5.671973259333334</v>
       </c>
       <c r="R13">
-        <v>559.68893457795</v>
+        <v>51.04775933400001</v>
       </c>
       <c r="S13">
-        <v>0.014876269971592</v>
+        <v>0.001164566399096968</v>
       </c>
       <c r="T13">
-        <v>0.01059326844579685</v>
+        <v>0.001214531061451443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H14">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I14">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J14">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>121.05664418622</v>
+        <v>7.629263021697779</v>
       </c>
       <c r="R14">
-        <v>726.33986511732</v>
+        <v>68.66336719528</v>
       </c>
       <c r="S14">
-        <v>0.01930577372011646</v>
+        <v>0.001566436045924964</v>
       </c>
       <c r="T14">
-        <v>0.0137474813216984</v>
+        <v>0.001633642560036318</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.944141</v>
+        <v>0.1182133333333333</v>
       </c>
       <c r="H15">
-        <v>3.888282</v>
+        <v>0.35464</v>
       </c>
       <c r="I15">
-        <v>0.09571351399447693</v>
+        <v>0.006542562993707394</v>
       </c>
       <c r="J15">
-        <v>0.06591189571392365</v>
+        <v>0.006701820230928955</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>59.30406345501301</v>
+        <v>1.701485112946667</v>
       </c>
       <c r="R15">
-        <v>237.216253820052</v>
+        <v>10.20891067768</v>
       </c>
       <c r="S15">
-        <v>0.009457645529845569</v>
+        <v>0.0003493479782967623</v>
       </c>
       <c r="T15">
-        <v>0.00448980728610798</v>
+        <v>0.0002428909570839354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1182133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.35464</v>
+      </c>
+      <c r="I16">
+        <v>0.006542562993707394</v>
+      </c>
+      <c r="J16">
+        <v>0.006701820230928955</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>79.17795566666666</v>
+      </c>
+      <c r="N16">
+        <v>237.533867</v>
+      </c>
+      <c r="O16">
+        <v>0.2937331182295834</v>
+      </c>
+      <c r="P16">
+        <v>0.2990559347000084</v>
+      </c>
+      <c r="Q16">
+        <v>9.359890065875556</v>
+      </c>
+      <c r="R16">
+        <v>84.23901059287999</v>
+      </c>
+      <c r="S16">
+        <v>0.001921767429355151</v>
+      </c>
+      <c r="T16">
+        <v>0.002004219113351885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.28809</v>
+      </c>
+      <c r="H17">
+        <v>2.57618</v>
+      </c>
+      <c r="I17">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J17">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.46725166666666</v>
+      </c>
+      <c r="N17">
+        <v>190.401755</v>
+      </c>
+      <c r="O17">
+        <v>0.2354497988808272</v>
+      </c>
+      <c r="P17">
+        <v>0.2397164477183668</v>
+      </c>
+      <c r="Q17">
+        <v>81.75153219931666</v>
+      </c>
+      <c r="R17">
+        <v>490.5091931958999</v>
+      </c>
+      <c r="S17">
+        <v>0.01678517918210498</v>
+      </c>
+      <c r="T17">
+        <v>0.01167022135420388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.28809</v>
+      </c>
+      <c r="H18">
+        <v>2.57618</v>
+      </c>
+      <c r="I18">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J18">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.980825</v>
+      </c>
+      <c r="N18">
+        <v>143.942475</v>
+      </c>
+      <c r="O18">
+        <v>0.1779985000094065</v>
+      </c>
+      <c r="P18">
+        <v>0.1812240584798697</v>
+      </c>
+      <c r="Q18">
+        <v>61.80362087425</v>
+      </c>
+      <c r="R18">
+        <v>370.8217252455</v>
+      </c>
+      <c r="S18">
+        <v>0.01268948510895116</v>
+      </c>
+      <c r="T18">
+        <v>0.008822610618909254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.28809</v>
+      </c>
+      <c r="H19">
+        <v>2.57618</v>
+      </c>
+      <c r="I19">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J19">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>64.53809233333334</v>
+      </c>
+      <c r="N19">
+        <v>193.614277</v>
+      </c>
+      <c r="O19">
+        <v>0.2394223865221556</v>
+      </c>
+      <c r="P19">
+        <v>0.243761023683841</v>
+      </c>
+      <c r="Q19">
+        <v>83.13087135364334</v>
+      </c>
+      <c r="R19">
+        <v>498.78522812186</v>
+      </c>
+      <c r="S19">
+        <v>0.01706838433111453</v>
+      </c>
+      <c r="T19">
+        <v>0.0118671252264673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.28809</v>
+      </c>
+      <c r="H20">
+        <v>2.57618</v>
+      </c>
+      <c r="I20">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J20">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.3933435</v>
+      </c>
+      <c r="N20">
+        <v>28.786687</v>
+      </c>
+      <c r="O20">
+        <v>0.0533961963580272</v>
+      </c>
+      <c r="P20">
+        <v>0.03624253541791403</v>
+      </c>
+      <c r="Q20">
+        <v>18.539921828915</v>
+      </c>
+      <c r="R20">
+        <v>74.15968731565999</v>
+      </c>
+      <c r="S20">
+        <v>0.00380660645187466</v>
+      </c>
+      <c r="T20">
+        <v>0.001764411306734979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.944141</v>
-      </c>
-      <c r="H16">
-        <v>3.888282</v>
-      </c>
-      <c r="I16">
-        <v>0.09571351399447693</v>
-      </c>
-      <c r="J16">
-        <v>0.06591189571392365</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>58.81030666666667</v>
-      </c>
-      <c r="N16">
-        <v>176.43092</v>
-      </c>
-      <c r="O16">
-        <v>0.1905050633580386</v>
-      </c>
-      <c r="P16">
-        <v>0.1969935053322898</v>
-      </c>
-      <c r="Q16">
-        <v>114.33552841324</v>
-      </c>
-      <c r="R16">
-        <v>686.0131704794401</v>
-      </c>
-      <c r="S16">
-        <v>0.01823390904773834</v>
-      </c>
-      <c r="T16">
-        <v>0.01298421537978215</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.28809</v>
+      </c>
+      <c r="H21">
+        <v>2.57618</v>
+      </c>
+      <c r="I21">
+        <v>0.07128984293845497</v>
+      </c>
+      <c r="J21">
+        <v>0.0486834402281597</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>79.17795566666666</v>
+      </c>
+      <c r="N21">
+        <v>237.533867</v>
+      </c>
+      <c r="O21">
+        <v>0.2937331182295834</v>
+      </c>
+      <c r="P21">
+        <v>0.2990559347000084</v>
+      </c>
+      <c r="Q21">
+        <v>101.9883329146767</v>
+      </c>
+      <c r="R21">
+        <v>611.9299974880599</v>
+      </c>
+      <c r="S21">
+        <v>0.02094018786440962</v>
+      </c>
+      <c r="T21">
+        <v>0.01455907172184429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H22">
+        <v>0.224926</v>
+      </c>
+      <c r="I22">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J22">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>63.46725166666666</v>
+      </c>
+      <c r="N22">
+        <v>190.401755</v>
+      </c>
+      <c r="O22">
+        <v>0.2354497988808272</v>
+      </c>
+      <c r="P22">
+        <v>0.2397164477183668</v>
+      </c>
+      <c r="Q22">
+        <v>4.758478349458888</v>
+      </c>
+      <c r="R22">
+        <v>42.82630514512999</v>
+      </c>
+      <c r="S22">
+        <v>0.0009770081316041956</v>
+      </c>
+      <c r="T22">
+        <v>0.001018925777048056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H23">
+        <v>0.224926</v>
+      </c>
+      <c r="I23">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J23">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.980825</v>
+      </c>
+      <c r="N23">
+        <v>143.942475</v>
+      </c>
+      <c r="O23">
+        <v>0.1779985000094065</v>
+      </c>
+      <c r="P23">
+        <v>0.1812240584798697</v>
+      </c>
+      <c r="Q23">
+        <v>3.597378347983333</v>
+      </c>
+      <c r="R23">
+        <v>32.37640513185</v>
+      </c>
+      <c r="S23">
+        <v>0.0007386117242366471</v>
+      </c>
+      <c r="T23">
+        <v>0.0007703011886082428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H24">
+        <v>0.224926</v>
+      </c>
+      <c r="I24">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J24">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.53809233333334</v>
+      </c>
+      <c r="N24">
+        <v>193.614277</v>
+      </c>
+      <c r="O24">
+        <v>0.2394223865221556</v>
+      </c>
+      <c r="P24">
+        <v>0.243761023683841</v>
+      </c>
+      <c r="Q24">
+        <v>4.838764985389111</v>
+      </c>
+      <c r="R24">
+        <v>43.548884868502</v>
+      </c>
+      <c r="S24">
+        <v>0.0009934925390980101</v>
+      </c>
+      <c r="T24">
+        <v>0.001036117433055292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H25">
+        <v>0.224926</v>
+      </c>
+      <c r="I25">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J25">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.3933435</v>
+      </c>
+      <c r="N25">
+        <v>28.786687</v>
+      </c>
+      <c r="O25">
+        <v>0.0533961963580272</v>
+      </c>
+      <c r="P25">
+        <v>0.03624253541791403</v>
+      </c>
+      <c r="Q25">
+        <v>1.079145726693667</v>
+      </c>
+      <c r="R25">
+        <v>6.474874360162</v>
+      </c>
+      <c r="S25">
+        <v>0.0002215696011910037</v>
+      </c>
+      <c r="T25">
+        <v>0.00015405056229715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07497533333333332</v>
+      </c>
+      <c r="H26">
+        <v>0.224926</v>
+      </c>
+      <c r="I26">
+        <v>0.004149539036551514</v>
+      </c>
+      <c r="J26">
+        <v>0.0042505459543817</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>79.17795566666666</v>
+      </c>
+      <c r="N26">
+        <v>237.533867</v>
+      </c>
+      <c r="O26">
+        <v>0.2937331182295834</v>
+      </c>
+      <c r="P26">
+        <v>0.2990559347000084</v>
+      </c>
+      <c r="Q26">
+        <v>5.936393618760222</v>
+      </c>
+      <c r="R26">
+        <v>53.42754256884199</v>
+      </c>
+      <c r="S26">
+        <v>0.001218857040421657</v>
+      </c>
+      <c r="T26">
+        <v>0.001271150993372958</v>
       </c>
     </row>
   </sheetData>
